--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Barter_invalid1.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Barter_invalid1.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5AA03600-1F29-47D4-83BE-0DCD4920FC1C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704DF51C-1547-4BAD-A58B-169110C7B372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="435" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barter Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -118,9 +129,6 @@
     <t>MMM YYYY (Optional)</t>
   </si>
   <si>
-    <t>MLB</t>
-  </si>
-  <si>
     <t>MDN</t>
   </si>
   <si>
@@ -176,6 +184,9 @@
   </si>
   <si>
     <t>1111.11a</t>
+  </si>
+  <si>
+    <t>TVB</t>
   </si>
 </sst>
 </file>
@@ -804,11 +815,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -822,11 +833,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,7 +1032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1073,7 +1084,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1279,7 +1290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1329,10 +1340,10 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="51" t="str">
         <f>IF(COUNTA($E$3:$E12) &gt; 0, "Errors", "")</f>
         <v/>
@@ -1364,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>4</v>
@@ -1398,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>6</v>
@@ -1500,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>11</v>
@@ -1534,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>13</v>
@@ -1568,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>15</v>
@@ -1670,12 +1681,12 @@
         <v>19</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="48"/>
       <c r="F12" s="49"/>
       <c r="G12" s="50"/>
@@ -1837,7 +1848,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>29</v>
@@ -1871,7 +1882,7 @@
     <row r="18" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="42">
         <v>3</v>
@@ -1886,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -1910,7 +1921,7 @@
     </row>
     <row r="19" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42">
@@ -1926,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -1950,13 +1961,13 @@
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="42">
         <v>2</v>
@@ -1990,10 +2001,10 @@
     </row>
     <row r="21" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="42">
         <v>4</v>
@@ -2008,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
@@ -2032,10 +2043,10 @@
     </row>
     <row r="22" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="42">
         <v>1</v>
@@ -2050,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -33630,28 +33641,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:Z1048576">
     <cfRule type="expression" dxfId="11" priority="9">
